--- a/patch-sp-doc-ror32/ig/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/patch-sp-doc-ror32/ig/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T16:34:39+00:00</t>
+    <t>2024-09-19T15:11:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
